--- a/Running projects/NICVD/PO/001- Purchase order- for copper pipe Crescent corp.xlsx
+++ b/Running projects/NICVD/PO/001- Purchase order- for copper pipe Crescent corp.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NICVD\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50FD841-B0B4-414C-AF32-B0403F0577A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ADFA29-7026-41AB-B90E-691371F6CF73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$47</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$24:$24</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>S No.</t>
   </si>
@@ -127,6 +128,24 @@
       <t>IK Associates</t>
     </r>
   </si>
+  <si>
+    <t>Supply of Copper L-Type Mueller USA    1" Dia</t>
+  </si>
+  <si>
+    <t>Supply of Copper L-Type Mueller USA  1-1/4" Dia</t>
+  </si>
+  <si>
+    <t>Supply of Copper L-Type Mueller USA  1-1/2" Dia</t>
+  </si>
+  <si>
+    <t>Supply of Copper L-Type Mueller USA  1-5/8" Dia</t>
+  </si>
+  <si>
+    <t>Rft</t>
+  </si>
+  <si>
+    <t>CRESCENT</t>
+  </si>
 </sst>
 </file>
 
@@ -136,7 +155,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +263,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -335,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,6 +474,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -733,16 +766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>362984</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>58184</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>39279</xdr:rowOff>
+      <xdr:rowOff>153579</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -765,7 +798,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8601075" y="1076325"/>
+          <a:off x="10125075" y="1190625"/>
           <a:ext cx="7411484" cy="8449854"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1008,6 +1041,55 @@
         <a:xfrm>
           <a:off x="66675" y="66675"/>
           <a:ext cx="1467055" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>105244</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>58058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710DB0B1-AC08-4207-A193-8C64E9D752CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13668375" y="409575"/>
+          <a:ext cx="3362794" cy="6506483"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1284,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A10:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1714,4 +1796,603 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78953A4D-2A0C-4776-B286-232C1BB2DD8E}">
+  <dimension ref="C4:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="51.140625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1004</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="12">
+        <v>242.667</v>
+      </c>
+      <c r="G6" s="22">
+        <f>F6*D6</f>
+        <v>243637.66800000001</v>
+      </c>
+      <c r="K6">
+        <v>4570</v>
+      </c>
+      <c r="L6">
+        <f>K6/20</f>
+        <v>228.5</v>
+      </c>
+      <c r="M6">
+        <f>L6*1.18</f>
+        <v>269.63</v>
+      </c>
+      <c r="N6">
+        <f>M6*0.9</f>
+        <v>242.667</v>
+      </c>
+      <c r="P6">
+        <f>M6*10%</f>
+        <v>26.963000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6">
+        <v>226</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12">
+        <v>382.851</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" ref="G7:G16" si="0">F7*D7</f>
+        <v>86524.326000000001</v>
+      </c>
+      <c r="K7">
+        <v>7210</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L16" si="1">K7/20</f>
+        <v>360.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M16" si="2">L7*1.18</f>
+        <v>425.39</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N16" si="3">M7*0.9</f>
+        <v>382.851</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1056</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="12">
+        <v>553.30200000000002</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="0"/>
+        <v>584286.91200000001</v>
+      </c>
+      <c r="K8">
+        <v>10420</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>521</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>614.78</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>553.30200000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="6">
+        <v>546</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="12">
+        <v>702.51299999999992</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="0"/>
+        <v>383572.09799999994</v>
+      </c>
+      <c r="K9">
+        <v>13230</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>661.5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>780.56999999999994</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>702.51299999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6">
+        <v>40</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12">
+        <v>863.93700000000001</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="0"/>
+        <v>34557.480000000003</v>
+      </c>
+      <c r="K10">
+        <v>16270</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>813.5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>959.93</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>863.93700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6">
+        <v>155</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="12">
+        <v>930.6</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="0"/>
+        <v>144243</v>
+      </c>
+      <c r="K11" s="41">
+        <v>20680</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>1034</v>
+      </c>
+      <c r="M11">
+        <f>L11*0.9</f>
+        <v>930.6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="6">
+        <v>99</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1229.7959999999998</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="0"/>
+        <v>121749.80399999999</v>
+      </c>
+      <c r="K12">
+        <v>23160</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>1158</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>1366.4399999999998</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>1229.7959999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="6">
+        <v>186</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1281</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="0"/>
+        <v>238266</v>
+      </c>
+      <c r="K13" s="41">
+        <v>28460</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>1423</v>
+      </c>
+      <c r="M13">
+        <f>L13*0.9</f>
+        <v>1280.7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1668.402</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>31420</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>1571</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>1853.78</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>1668.402</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6">
+        <v>280</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1742</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="0"/>
+        <v>487760</v>
+      </c>
+      <c r="K15" s="41">
+        <v>38700</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>1935</v>
+      </c>
+      <c r="M15">
+        <f>L15*0.9</f>
+        <v>1741.5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1963</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="41">
+        <v>43630</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>2181.5</v>
+      </c>
+      <c r="M16">
+        <f>L16*0.9</f>
+        <v>1963.3500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43">
+        <f>SUM(G6:G16)</f>
+        <v>2324597.2879999997</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" s="44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1004</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="12">
+        <v>242.667</v>
+      </c>
+      <c r="G23" s="22">
+        <f>F23*D23</f>
+        <v>243637.66800000001</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6">
+        <v>226</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="12">
+        <v>382.851</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" ref="G24:G33" si="4">F24*D24</f>
+        <v>86524.326000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1056</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="12">
+        <v>553.30200000000002</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="4"/>
+        <v>584286.91200000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="6">
+        <v>546</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="12">
+        <v>702.51299999999992</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="4"/>
+        <v>383572.09799999994</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6">
+        <v>40</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="12">
+        <v>863.93700000000001</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="4"/>
+        <v>34557.480000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="6">
+        <v>155</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="12">
+        <v>930.6</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="4"/>
+        <v>144243</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="6">
+        <v>99</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1229.7959999999998</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="4"/>
+        <v>121749.80399999999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="6">
+        <v>186</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1281</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="4"/>
+        <v>238266</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="12">
+        <v>1668.402</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="6">
+        <v>280</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="12">
+        <v>1742</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="4"/>
+        <v>487760</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1963</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43">
+        <f>SUM(G23:G33)</f>
+        <v>2324597.2879999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Running projects/NICVD/PO/001- Purchase order- for copper pipe Crescent corp.xlsx
+++ b/Running projects/NICVD/PO/001- Purchase order- for copper pipe Crescent corp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\NICVD\PO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ADFA29-7026-41AB-B90E-691371F6CF73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9AFC6F-3004-40EE-9943-8C4DE47FDD61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,42 +444,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1412,22 +1412,22 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
     </row>
     <row r="17" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
@@ -1438,28 +1438,28 @@
       <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:9" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="43"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -1689,11 +1689,11 @@
     <row r="34" spans="1:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="16">
         <f>SUM(F26:F33)</f>
         <v>4038700</v>
@@ -1702,13 +1702,13 @@
       <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="17">
         <v>437005</v>
       </c>
@@ -1716,13 +1716,13 @@
       <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="18">
         <f>F34-F35</f>
         <v>3601695</v>
@@ -1731,13 +1731,13 @@
       <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="18">
         <f>F36*18%</f>
         <v>648305.1</v>
@@ -1746,13 +1746,13 @@
       <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="18">
         <f>F37+F36</f>
         <v>4250000.0999999996</v>
@@ -1761,14 +1761,14 @@
       <c r="H38" s="20"/>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
     </row>
     <row r="43" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -1802,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78953A4D-2A0C-4776-B286-232C1BB2DD8E}">
   <dimension ref="C4:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,7 +1813,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="34" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1879,11 +1879,11 @@
         <v>360.5</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M16" si="2">L7*1.18</f>
+        <f t="shared" ref="M7:M14" si="2">L7*1.18</f>
         <v>425.39</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N16" si="3">M7*0.9</f>
+        <f t="shared" ref="N7:N14" si="3">M7*0.9</f>
         <v>382.851</v>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
         <f t="shared" si="0"/>
         <v>144243</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="31">
         <v>20680</v>
       </c>
       <c r="L11">
@@ -2065,7 +2065,7 @@
         <f t="shared" si="0"/>
         <v>238266</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="31">
         <v>28460</v>
       </c>
       <c r="L13">
@@ -2127,7 +2127,7 @@
         <f t="shared" si="0"/>
         <v>487760</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="31">
         <v>38700</v>
       </c>
       <c r="L15">
@@ -2156,7 +2156,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="31">
         <v>43630</v>
       </c>
       <c r="L16">
@@ -2169,17 +2169,17 @@
       </c>
     </row>
     <row r="17" spans="3:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33">
         <f>SUM(G6:G16)</f>
         <v>2324597.2879999997</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="6">
-        <v>1004</v>
+        <v>320</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>32</v>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="G23" s="22">
         <f>F23*D23</f>
-        <v>243637.66800000001</v>
+        <v>77653.440000000002</v>
       </c>
     </row>
     <row r="24" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2206,7 +2206,7 @@
         <v>17</v>
       </c>
       <c r="D24" s="6">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>32</v>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="G24" s="22">
         <f t="shared" ref="G24:G33" si="4">F24*D24</f>
-        <v>86524.326000000001</v>
+        <v>31776.633000000002</v>
       </c>
     </row>
     <row r="25" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2224,7 +2224,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="6">
-        <v>1056</v>
+        <v>333</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>32</v>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="G25" s="22">
         <f t="shared" si="4"/>
-        <v>584286.91200000001</v>
+        <v>184249.56600000002</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="6">
-        <v>546</v>
+        <v>294</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>32</v>
@@ -2252,16 +2252,14 @@
       </c>
       <c r="G26" s="22">
         <f t="shared" si="4"/>
-        <v>383572.09799999994</v>
+        <v>206538.82199999999</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="6">
-        <v>40</v>
-      </c>
+      <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
         <v>32</v>
       </c>
@@ -2270,7 +2268,7 @@
       </c>
       <c r="G27" s="22">
         <f t="shared" si="4"/>
-        <v>34557.480000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2278,7 +2276,7 @@
         <v>28</v>
       </c>
       <c r="D28" s="6">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>32</v>
@@ -2288,7 +2286,7 @@
       </c>
       <c r="G28" s="22">
         <f t="shared" si="4"/>
-        <v>144243</v>
+        <v>35362.800000000003</v>
       </c>
     </row>
     <row r="29" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2296,7 +2294,7 @@
         <v>21</v>
       </c>
       <c r="D29" s="6">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>32</v>
@@ -2306,7 +2304,7 @@
       </c>
       <c r="G29" s="22">
         <f t="shared" si="4"/>
-        <v>121749.80399999999</v>
+        <v>18446.939999999999</v>
       </c>
     </row>
     <row r="30" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2314,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="6">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>32</v>
@@ -2324,16 +2322,14 @@
       </c>
       <c r="G30" s="22">
         <f t="shared" si="4"/>
-        <v>238266</v>
+        <v>57645</v>
       </c>
     </row>
     <row r="31" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
+      <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
         <v>32</v>
       </c>
@@ -2350,7 +2346,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="6">
-        <v>280</v>
+        <v>207</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>32</v>
@@ -2360,16 +2356,14 @@
       </c>
       <c r="G32" s="22">
         <f t="shared" si="4"/>
-        <v>487760</v>
+        <v>360594</v>
       </c>
     </row>
     <row r="33" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
+      <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
         <v>32</v>
       </c>
@@ -2382,13 +2376,13 @@
       </c>
     </row>
     <row r="34" spans="3:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33">
         <f>SUM(G23:G33)</f>
-        <v>2324597.2879999997</v>
+        <v>972267.201</v>
       </c>
     </row>
   </sheetData>
